--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Project\C2Ev2\NeuroViz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144FB25-F79C-4CD4-989F-7BDDD3A1BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -55,365 +61,41 @@
   <si>
     <t>jason</t>
   </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>last year's net interest</t>
+  </si>
+  <si>
+    <t>Average monthly expenditure</t>
+  </si>
+  <si>
+    <t>Venture capital investment amount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -421,251 +103,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -674,89 +114,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -767,7 +276,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -795,154 +304,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1192,21 +587,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,13 +614,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>88888</v>
+        <v>8002002</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1233,13 +640,25 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>732397</v>
+      </c>
+      <c r="F2">
+        <v>94599</v>
+      </c>
+      <c r="G2">
+        <v>690447</v>
+      </c>
+      <c r="H2">
+        <v>444055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>98888</v>
+        <v>2387729</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -1247,13 +666,25 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>720661</v>
+      </c>
+      <c r="F3">
+        <v>48524</v>
+      </c>
+      <c r="G3">
+        <v>296782</v>
+      </c>
+      <c r="H3">
+        <v>252571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>979797</v>
+        <v>4067057</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -1261,13 +692,25 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>681279</v>
+      </c>
+      <c r="F4">
+        <v>41337</v>
+      </c>
+      <c r="G4">
+        <v>366832</v>
+      </c>
+      <c r="H4">
+        <v>118493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>55151</v>
+        <v>1328092</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -1275,13 +718,25 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>850935</v>
+      </c>
+      <c r="F5">
+        <v>1412</v>
+      </c>
+      <c r="G5">
+        <v>846037</v>
+      </c>
+      <c r="H5">
+        <v>572046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>565152</v>
+        <v>6078067</v>
       </c>
       <c r="C6">
         <v>27</v>
@@ -1289,13 +744,25 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>632467</v>
+      </c>
+      <c r="F6">
+        <v>60001</v>
+      </c>
+      <c r="G6">
+        <v>620267</v>
+      </c>
+      <c r="H6">
+        <v>423326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>65153</v>
+        <v>1020243</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -1303,13 +770,25 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>968863</v>
+      </c>
+      <c r="F7">
+        <v>23046</v>
+      </c>
+      <c r="G7">
+        <v>505676</v>
+      </c>
+      <c r="H7">
+        <v>365123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>75154</v>
+        <v>6203507</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -1317,13 +796,25 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>911865</v>
+      </c>
+      <c r="F8">
+        <v>55073</v>
+      </c>
+      <c r="G8">
+        <v>569372</v>
+      </c>
+      <c r="H8">
+        <v>260362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5155</v>
+        <v>9276192</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1331,13 +822,25 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>944167</v>
+      </c>
+      <c r="F9">
+        <v>33100</v>
+      </c>
+      <c r="G9">
+        <v>96678</v>
+      </c>
+      <c r="H9">
+        <v>527315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25156</v>
+        <v>2808192</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -1345,13 +848,25 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>988033</v>
+      </c>
+      <c r="F10">
+        <v>92408</v>
+      </c>
+      <c r="G10">
+        <v>655940</v>
+      </c>
+      <c r="H10">
+        <v>819803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>25157</v>
+        <v>731909</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1359,13 +874,25 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>456259</v>
+      </c>
+      <c r="F11">
+        <v>22001</v>
+      </c>
+      <c r="G11">
+        <v>585009</v>
+      </c>
+      <c r="H11">
+        <v>453400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>25158</v>
+        <v>8064204</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -1373,13 +900,25 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>219188</v>
+      </c>
+      <c r="F12">
+        <v>64175</v>
+      </c>
+      <c r="G12">
+        <v>747354</v>
+      </c>
+      <c r="H12">
+        <v>830761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>25159</v>
+        <v>7616032</v>
       </c>
       <c r="C13">
         <v>34</v>
@@ -1387,13 +926,25 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>199074</v>
+      </c>
+      <c r="F13">
+        <v>90852</v>
+      </c>
+      <c r="G13">
+        <v>535003</v>
+      </c>
+      <c r="H13">
+        <v>712110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <v>25160</v>
+        <v>9475054</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -1401,13 +952,25 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>121006</v>
+      </c>
+      <c r="F14">
+        <v>61667</v>
+      </c>
+      <c r="G14">
+        <v>388126</v>
+      </c>
+      <c r="H14">
+        <v>599356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>25161</v>
+        <v>2991055</v>
       </c>
       <c r="C15">
         <v>36</v>
@@ -1415,13 +978,25 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>770757</v>
+      </c>
+      <c r="F15">
+        <v>21608</v>
+      </c>
+      <c r="G15">
+        <v>999454</v>
+      </c>
+      <c r="H15">
+        <v>534658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>25162</v>
+        <v>1692903</v>
       </c>
       <c r="C16">
         <v>37</v>
@@ -1429,13 +1004,25 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>606254</v>
+      </c>
+      <c r="F16">
+        <v>54258</v>
+      </c>
+      <c r="G16">
+        <v>165397</v>
+      </c>
+      <c r="H16">
+        <v>842615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>25163</v>
+        <v>7109278</v>
       </c>
       <c r="C17">
         <v>38</v>
@@ -1443,13 +1030,25 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>962135</v>
+      </c>
+      <c r="F17">
+        <v>68601</v>
+      </c>
+      <c r="G17">
+        <v>347106</v>
+      </c>
+      <c r="H17">
+        <v>712853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>25164</v>
+        <v>2891971</v>
       </c>
       <c r="C18">
         <v>39</v>
@@ -1457,13 +1056,25 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>275175</v>
+      </c>
+      <c r="F18">
+        <v>13694</v>
+      </c>
+      <c r="G18">
+        <v>134743</v>
+      </c>
+      <c r="H18">
+        <v>346862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
-        <v>25165</v>
+        <v>2605171</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -1471,13 +1082,25 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>963160</v>
+      </c>
+      <c r="F19">
+        <v>84678</v>
+      </c>
+      <c r="G19">
+        <v>406514</v>
+      </c>
+      <c r="H19">
+        <v>513258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>25166</v>
+        <v>5217266</v>
       </c>
       <c r="C20">
         <v>41</v>
@@ -1485,13 +1108,25 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>704854</v>
+      </c>
+      <c r="F20">
+        <v>73006</v>
+      </c>
+      <c r="G20">
+        <v>471803</v>
+      </c>
+      <c r="H20">
+        <v>229600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21">
-        <v>25167</v>
+        <v>470486</v>
       </c>
       <c r="C21">
         <v>42</v>
@@ -1499,13 +1134,25 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>792254</v>
+      </c>
+      <c r="F21">
+        <v>14526</v>
+      </c>
+      <c r="G21">
+        <v>606627</v>
+      </c>
+      <c r="H21">
+        <v>234636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
-        <v>65168</v>
+        <v>7150112</v>
       </c>
       <c r="C22">
         <v>43</v>
@@ -1513,13 +1160,25 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>640419</v>
+      </c>
+      <c r="F22">
+        <v>19073</v>
+      </c>
+      <c r="G22">
+        <v>988723</v>
+      </c>
+      <c r="H22">
+        <v>410778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23">
-        <v>55169</v>
+        <v>7434692</v>
       </c>
       <c r="C23">
         <v>44</v>
@@ -1527,13 +1186,25 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>330762</v>
+      </c>
+      <c r="F23">
+        <v>12006</v>
+      </c>
+      <c r="G23">
+        <v>570448</v>
+      </c>
+      <c r="H23">
+        <v>732277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <v>65170</v>
+        <v>2464986</v>
       </c>
       <c r="C24">
         <v>45</v>
@@ -1541,13 +1212,25 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>983323</v>
+      </c>
+      <c r="F24">
+        <v>97904</v>
+      </c>
+      <c r="G24">
+        <v>181757</v>
+      </c>
+      <c r="H24">
+        <v>885123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
-        <v>15171</v>
+        <v>6077151</v>
       </c>
       <c r="C25">
         <v>46</v>
@@ -1555,13 +1238,25 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>322282</v>
+      </c>
+      <c r="F25">
+        <v>70382</v>
+      </c>
+      <c r="G25">
+        <v>275239</v>
+      </c>
+      <c r="H25">
+        <v>432923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>15172</v>
+        <v>2467072</v>
       </c>
       <c r="C26">
         <v>47</v>
@@ -1569,13 +1264,25 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>790422</v>
+      </c>
+      <c r="F26">
+        <v>65769</v>
+      </c>
+      <c r="G26">
+        <v>663900</v>
+      </c>
+      <c r="H26">
+        <v>687256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
-        <v>15173</v>
+        <v>9644465</v>
       </c>
       <c r="C27">
         <v>48</v>
@@ -1583,13 +1290,25 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>865805</v>
+      </c>
+      <c r="F27">
+        <v>80667</v>
+      </c>
+      <c r="G27">
+        <v>490379</v>
+      </c>
+      <c r="H27">
+        <v>303014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
-        <v>15174</v>
+        <v>9600998</v>
       </c>
       <c r="C28">
         <v>49</v>
@@ -1597,13 +1316,25 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>290206</v>
+      </c>
+      <c r="F28">
+        <v>50495</v>
+      </c>
+      <c r="G28">
+        <v>843652</v>
+      </c>
+      <c r="H28">
+        <v>715200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
-        <v>15175</v>
+        <v>5576403</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -1611,13 +1342,25 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>245627</v>
+      </c>
+      <c r="F29">
+        <v>61120</v>
+      </c>
+      <c r="G29">
+        <v>2105</v>
+      </c>
+      <c r="H29">
+        <v>819067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>15176</v>
+        <v>9007740</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -1625,13 +1368,25 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>661527</v>
+      </c>
+      <c r="F30">
+        <v>58942</v>
+      </c>
+      <c r="G30">
+        <v>265608</v>
+      </c>
+      <c r="H30">
+        <v>198196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>15177</v>
+        <v>3923728</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -1639,13 +1394,25 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>10855</v>
+      </c>
+      <c r="F31">
+        <v>97804</v>
+      </c>
+      <c r="G31">
+        <v>482652</v>
+      </c>
+      <c r="H31">
+        <v>622629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>15178</v>
+        <v>9459730</v>
       </c>
       <c r="C32">
         <v>29</v>
@@ -1653,13 +1420,25 @@
       <c r="D32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>103397</v>
+      </c>
+      <c r="F32">
+        <v>47910</v>
+      </c>
+      <c r="G32">
+        <v>334668</v>
+      </c>
+      <c r="H32">
+        <v>528011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33">
-        <v>15179</v>
+        <v>1045545</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -1667,13 +1446,25 @@
       <c r="D33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>793785</v>
+      </c>
+      <c r="F33">
+        <v>84530</v>
+      </c>
+      <c r="G33">
+        <v>743450</v>
+      </c>
+      <c r="H33">
+        <v>797897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34">
-        <v>15180</v>
+        <v>7434160</v>
       </c>
       <c r="C34">
         <v>27</v>
@@ -1681,13 +1472,25 @@
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>668925</v>
+      </c>
+      <c r="F34">
+        <v>96381</v>
+      </c>
+      <c r="G34">
+        <v>109285</v>
+      </c>
+      <c r="H34">
+        <v>529496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35">
-        <v>15181</v>
+        <v>5742010</v>
       </c>
       <c r="C35">
         <v>27</v>
@@ -1695,13 +1498,25 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>107789</v>
+      </c>
+      <c r="F35">
+        <v>54790</v>
+      </c>
+      <c r="G35">
+        <v>260796</v>
+      </c>
+      <c r="H35">
+        <v>363470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36">
-        <v>15182</v>
+        <v>8163955</v>
       </c>
       <c r="C36">
         <v>27</v>
@@ -1709,13 +1524,25 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>642211</v>
+      </c>
+      <c r="F36">
+        <v>94502</v>
+      </c>
+      <c r="G36">
+        <v>204222</v>
+      </c>
+      <c r="H36">
+        <v>188465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>15183</v>
+        <v>4159994</v>
       </c>
       <c r="C37">
         <v>27</v>
@@ -1723,13 +1550,25 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>264008</v>
+      </c>
+      <c r="F37">
+        <v>35099</v>
+      </c>
+      <c r="G37">
+        <v>883557</v>
+      </c>
+      <c r="H37">
+        <v>970735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38">
-        <v>15184</v>
+        <v>3401390</v>
       </c>
       <c r="C38">
         <v>27</v>
@@ -1737,13 +1576,25 @@
       <c r="D38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>19312</v>
+      </c>
+      <c r="F38">
+        <v>22816</v>
+      </c>
+      <c r="G38">
+        <v>714217</v>
+      </c>
+      <c r="H38">
+        <v>426034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39">
-        <v>45185</v>
+        <v>646336</v>
       </c>
       <c r="C39">
         <v>27</v>
@@ -1751,13 +1602,25 @@
       <c r="D39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>940355</v>
+      </c>
+      <c r="F39">
+        <v>7881</v>
+      </c>
+      <c r="G39">
+        <v>251295</v>
+      </c>
+      <c r="H39">
+        <v>850456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40">
-        <v>45186</v>
+        <v>419602</v>
       </c>
       <c r="C40">
         <v>27</v>
@@ -1765,13 +1628,25 @@
       <c r="D40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>96682</v>
+      </c>
+      <c r="F40">
+        <v>71984</v>
+      </c>
+      <c r="G40">
+        <v>871888</v>
+      </c>
+      <c r="H40">
+        <v>872643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41">
-        <v>45187</v>
+        <v>6733190</v>
       </c>
       <c r="C41">
         <v>27</v>
@@ -1779,13 +1654,25 @@
       <c r="D41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>769469</v>
+      </c>
+      <c r="F41">
+        <v>47792</v>
+      </c>
+      <c r="G41">
+        <v>889115</v>
+      </c>
+      <c r="H41">
+        <v>760693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42">
-        <v>45188</v>
+        <v>5829568</v>
       </c>
       <c r="C42">
         <v>27</v>
@@ -1793,13 +1680,25 @@
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>242825</v>
+      </c>
+      <c r="F42">
+        <v>24582</v>
+      </c>
+      <c r="G42">
+        <v>901184</v>
+      </c>
+      <c r="H42">
+        <v>937835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43">
-        <v>45189</v>
+        <v>4505017</v>
       </c>
       <c r="C43">
         <v>27</v>
@@ -1807,13 +1706,25 @@
       <c r="D43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>390416</v>
+      </c>
+      <c r="F43">
+        <v>97859</v>
+      </c>
+      <c r="G43">
+        <v>234918</v>
+      </c>
+      <c r="H43">
+        <v>263515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
-        <v>45190</v>
+        <v>9952758</v>
       </c>
       <c r="C44">
         <v>27</v>
@@ -1821,13 +1732,25 @@
       <c r="D44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>488830</v>
+      </c>
+      <c r="F44">
+        <v>65598</v>
+      </c>
+      <c r="G44">
+        <v>49716</v>
+      </c>
+      <c r="H44">
+        <v>419383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45">
-        <v>45191</v>
+        <v>8254611</v>
       </c>
       <c r="C45">
         <v>27</v>
@@ -1835,13 +1758,25 @@
       <c r="D45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>832812</v>
+      </c>
+      <c r="F45">
+        <v>29027</v>
+      </c>
+      <c r="G45">
+        <v>179609</v>
+      </c>
+      <c r="H45">
+        <v>301022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
-        <v>45192</v>
+        <v>2576718</v>
       </c>
       <c r="C46">
         <v>27</v>
@@ -1849,13 +1784,25 @@
       <c r="D46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>436911</v>
+      </c>
+      <c r="F46">
+        <v>9000</v>
+      </c>
+      <c r="G46">
+        <v>814993</v>
+      </c>
+      <c r="H46">
+        <v>762858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
-        <v>45193</v>
+        <v>6675339</v>
       </c>
       <c r="C47">
         <v>27</v>
@@ -1863,13 +1810,25 @@
       <c r="D47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>363835</v>
+      </c>
+      <c r="F47">
+        <v>19618</v>
+      </c>
+      <c r="G47">
+        <v>430697</v>
+      </c>
+      <c r="H47">
+        <v>601214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48">
-        <v>45194</v>
+        <v>3793868</v>
       </c>
       <c r="C48">
         <v>27</v>
@@ -1877,13 +1836,25 @@
       <c r="D48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>216331</v>
+      </c>
+      <c r="F48">
+        <v>99630</v>
+      </c>
+      <c r="G48">
+        <v>817523</v>
+      </c>
+      <c r="H48">
+        <v>392227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49">
-        <v>45195</v>
+        <v>4754563</v>
       </c>
       <c r="C49">
         <v>27</v>
@@ -1891,13 +1862,25 @@
       <c r="D49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>920111</v>
+      </c>
+      <c r="F49">
+        <v>99762</v>
+      </c>
+      <c r="G49">
+        <v>530455</v>
+      </c>
+      <c r="H49">
+        <v>747427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50">
-        <v>45196</v>
+        <v>4920505</v>
       </c>
       <c r="C50">
         <v>27</v>
@@ -1905,13 +1888,25 @@
       <c r="D50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>949560</v>
+      </c>
+      <c r="F50">
+        <v>26386</v>
+      </c>
+      <c r="G50">
+        <v>805427</v>
+      </c>
+      <c r="H50">
+        <v>288789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51">
-        <v>45197</v>
+        <v>9087906</v>
       </c>
       <c r="C51">
         <v>27</v>
@@ -1919,13 +1914,25 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>54861</v>
+      </c>
+      <c r="F51">
+        <v>64437</v>
+      </c>
+      <c r="G51">
+        <v>629566</v>
+      </c>
+      <c r="H51">
+        <v>385666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52">
-        <v>45198</v>
+        <v>6081045</v>
       </c>
       <c r="C52">
         <v>27</v>
@@ -1933,13 +1940,25 @@
       <c r="D52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>634692</v>
+      </c>
+      <c r="F52">
+        <v>95428</v>
+      </c>
+      <c r="G52">
+        <v>137760</v>
+      </c>
+      <c r="H52">
+        <v>571587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53">
-        <v>2005199</v>
+        <v>2946078</v>
       </c>
       <c r="C53">
         <v>27</v>
@@ -1947,13 +1966,25 @@
       <c r="D53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>688398</v>
+      </c>
+      <c r="F53">
+        <v>95962</v>
+      </c>
+      <c r="G53">
+        <v>344499</v>
+      </c>
+      <c r="H53">
+        <v>721443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54">
-        <v>2005200</v>
+        <v>1685450</v>
       </c>
       <c r="C54">
         <v>27</v>
@@ -1961,13 +1992,25 @@
       <c r="D54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>797439</v>
+      </c>
+      <c r="F54">
+        <v>4283</v>
+      </c>
+      <c r="G54">
+        <v>158539</v>
+      </c>
+      <c r="H54">
+        <v>444607</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55">
-        <v>2005201</v>
+        <v>623514</v>
       </c>
       <c r="C55">
         <v>27</v>
@@ -1975,13 +2018,25 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>197197</v>
+      </c>
+      <c r="F55">
+        <v>5126</v>
+      </c>
+      <c r="G55">
+        <v>690638</v>
+      </c>
+      <c r="H55">
+        <v>852856</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>2005202</v>
+        <v>5231160</v>
       </c>
       <c r="C56">
         <v>27</v>
@@ -1989,13 +2044,25 @@
       <c r="D56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>659229</v>
+      </c>
+      <c r="F56">
+        <v>69443</v>
+      </c>
+      <c r="G56">
+        <v>167571</v>
+      </c>
+      <c r="H56">
+        <v>439345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57">
-        <v>2005203</v>
+        <v>1416045</v>
       </c>
       <c r="C57">
         <v>27</v>
@@ -2003,13 +2070,25 @@
       <c r="D57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>566493</v>
+      </c>
+      <c r="F57">
+        <v>68184</v>
+      </c>
+      <c r="G57">
+        <v>736887</v>
+      </c>
+      <c r="H57">
+        <v>737624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58">
-        <v>5204</v>
+        <v>4710551</v>
       </c>
       <c r="C58">
         <v>27</v>
@@ -2017,13 +2096,25 @@
       <c r="D58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>977964</v>
+      </c>
+      <c r="F58">
+        <v>23967</v>
+      </c>
+      <c r="G58">
+        <v>759653</v>
+      </c>
+      <c r="H58">
+        <v>727954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59">
-        <v>5205</v>
+        <v>8306249</v>
       </c>
       <c r="C59">
         <v>27</v>
@@ -2031,13 +2122,25 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>557008</v>
+      </c>
+      <c r="F59">
+        <v>87195</v>
+      </c>
+      <c r="G59">
+        <v>537933</v>
+      </c>
+      <c r="H59">
+        <v>905576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60">
-        <v>5206</v>
+        <v>2761740</v>
       </c>
       <c r="C60">
         <v>27</v>
@@ -2045,13 +2148,25 @@
       <c r="D60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>741794</v>
+      </c>
+      <c r="F60">
+        <v>79189</v>
+      </c>
+      <c r="G60">
+        <v>176565</v>
+      </c>
+      <c r="H60">
+        <v>141316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61">
-        <v>5207</v>
+        <v>6685454</v>
       </c>
       <c r="C61">
         <v>27</v>
@@ -2059,13 +2174,25 @@
       <c r="D61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>266880</v>
+      </c>
+      <c r="F61">
+        <v>21234</v>
+      </c>
+      <c r="G61">
+        <v>307409</v>
+      </c>
+      <c r="H61">
+        <v>198820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62">
-        <v>5208</v>
+        <v>5682457</v>
       </c>
       <c r="C62">
         <v>28</v>
@@ -2073,13 +2200,25 @@
       <c r="D62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>855715</v>
+      </c>
+      <c r="F62">
+        <v>95639</v>
+      </c>
+      <c r="G62">
+        <v>322271</v>
+      </c>
+      <c r="H62">
+        <v>893616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63">
-        <v>5209</v>
+        <v>8958879</v>
       </c>
       <c r="C63">
         <v>29</v>
@@ -2087,13 +2226,25 @@
       <c r="D63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>958310</v>
+      </c>
+      <c r="F63">
+        <v>30909</v>
+      </c>
+      <c r="G63">
+        <v>4167</v>
+      </c>
+      <c r="H63">
+        <v>216045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64">
-        <v>5210</v>
+        <v>3659288</v>
       </c>
       <c r="C64">
         <v>30</v>
@@ -2101,13 +2252,25 @@
       <c r="D64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>771968</v>
+      </c>
+      <c r="F64">
+        <v>33416</v>
+      </c>
+      <c r="G64">
+        <v>268189</v>
+      </c>
+      <c r="H64">
+        <v>270836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65">
-        <v>5211</v>
+        <v>5412316</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -2115,13 +2278,25 @@
       <c r="D65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>744616</v>
+      </c>
+      <c r="F65">
+        <v>24990</v>
+      </c>
+      <c r="G65">
+        <v>339037</v>
+      </c>
+      <c r="H65">
+        <v>278201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66">
-        <v>5212</v>
+        <v>2434408</v>
       </c>
       <c r="C66">
         <v>32</v>
@@ -2129,13 +2304,25 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>975867</v>
+      </c>
+      <c r="F66">
+        <v>44429</v>
+      </c>
+      <c r="G66">
+        <v>53447</v>
+      </c>
+      <c r="H66">
+        <v>190238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67">
-        <v>5213</v>
+        <v>1348688</v>
       </c>
       <c r="C67">
         <v>33</v>
@@ -2143,13 +2330,25 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>414123</v>
+      </c>
+      <c r="F67">
+        <v>72123</v>
+      </c>
+      <c r="G67">
+        <v>912099</v>
+      </c>
+      <c r="H67">
+        <v>415124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68">
-        <v>5214</v>
+        <v>5302372</v>
       </c>
       <c r="C68">
         <v>34</v>
@@ -2157,13 +2356,25 @@
       <c r="D68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>304058</v>
+      </c>
+      <c r="F68">
+        <v>82982</v>
+      </c>
+      <c r="G68">
+        <v>757652</v>
+      </c>
+      <c r="H68">
+        <v>136891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69">
-        <v>5215</v>
+        <v>2392448</v>
       </c>
       <c r="C69">
         <v>35</v>
@@ -2171,13 +2382,25 @@
       <c r="D69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>17748</v>
+      </c>
+      <c r="F69">
+        <v>6871</v>
+      </c>
+      <c r="G69">
+        <v>795184</v>
+      </c>
+      <c r="H69">
+        <v>629363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70">
-        <v>5216</v>
+        <v>9551436</v>
       </c>
       <c r="C70">
         <v>36</v>
@@ -2185,13 +2408,25 @@
       <c r="D70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>180135</v>
+      </c>
+      <c r="F70">
+        <v>36116</v>
+      </c>
+      <c r="G70">
+        <v>495483</v>
+      </c>
+      <c r="H70">
+        <v>712139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71">
-        <v>5217</v>
+        <v>6630897</v>
       </c>
       <c r="C71">
         <v>37</v>
@@ -2199,13 +2434,25 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>204064</v>
+      </c>
+      <c r="F71">
+        <v>17887</v>
+      </c>
+      <c r="G71">
+        <v>362779</v>
+      </c>
+      <c r="H71">
+        <v>390567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72">
-        <v>5218</v>
+        <v>6129446</v>
       </c>
       <c r="C72">
         <v>38</v>
@@ -2213,13 +2460,25 @@
       <c r="D72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>414342</v>
+      </c>
+      <c r="F72">
+        <v>66692</v>
+      </c>
+      <c r="G72">
+        <v>790623</v>
+      </c>
+      <c r="H72">
+        <v>224614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73">
-        <v>5219</v>
+        <v>2886549</v>
       </c>
       <c r="C73">
         <v>39</v>
@@ -2227,13 +2486,25 @@
       <c r="D73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>82604</v>
+      </c>
+      <c r="F73">
+        <v>33551</v>
+      </c>
+      <c r="G73">
+        <v>343199</v>
+      </c>
+      <c r="H73">
+        <v>471291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74">
-        <v>5220</v>
+        <v>3704197</v>
       </c>
       <c r="C74">
         <v>40</v>
@@ -2241,13 +2512,25 @@
       <c r="D74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>766020</v>
+      </c>
+      <c r="F74">
+        <v>79571</v>
+      </c>
+      <c r="G74">
+        <v>923473</v>
+      </c>
+      <c r="H74">
+        <v>792545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75">
-        <v>5221</v>
+        <v>5170456</v>
       </c>
       <c r="C75">
         <v>41</v>
@@ -2255,13 +2538,25 @@
       <c r="D75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>845602</v>
+      </c>
+      <c r="F75">
+        <v>30974</v>
+      </c>
+      <c r="G75">
+        <v>529906</v>
+      </c>
+      <c r="H75">
+        <v>103331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76">
-        <v>5222</v>
+        <v>7655982</v>
       </c>
       <c r="C76">
         <v>42</v>
@@ -2269,13 +2564,25 @@
       <c r="D76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>10821</v>
+      </c>
+      <c r="F76">
+        <v>28067</v>
+      </c>
+      <c r="G76">
+        <v>118153</v>
+      </c>
+      <c r="H76">
+        <v>885891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77">
-        <v>5223</v>
+        <v>5395098</v>
       </c>
       <c r="C77">
         <v>27</v>
@@ -2283,13 +2590,25 @@
       <c r="D77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>317745</v>
+      </c>
+      <c r="F77">
+        <v>87983</v>
+      </c>
+      <c r="G77">
+        <v>61045</v>
+      </c>
+      <c r="H77">
+        <v>502423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78">
-        <v>5224</v>
+        <v>6139904</v>
       </c>
       <c r="C78">
         <v>28</v>
@@ -2297,13 +2616,25 @@
       <c r="D78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>694727</v>
+      </c>
+      <c r="F78">
+        <v>36957</v>
+      </c>
+      <c r="G78">
+        <v>665593</v>
+      </c>
+      <c r="H78">
+        <v>265522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79">
-        <v>5225</v>
+        <v>2165324</v>
       </c>
       <c r="C79">
         <v>29</v>
@@ -2311,13 +2642,25 @@
       <c r="D79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>39272</v>
+      </c>
+      <c r="F79">
+        <v>45598</v>
+      </c>
+      <c r="G79">
+        <v>208583</v>
+      </c>
+      <c r="H79">
+        <v>985104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80">
-        <v>5226</v>
+        <v>5889064</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -2325,13 +2668,25 @@
       <c r="D80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>410551</v>
+      </c>
+      <c r="F80">
+        <v>12984</v>
+      </c>
+      <c r="G80">
+        <v>341954</v>
+      </c>
+      <c r="H80">
+        <v>669293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81">
-        <v>5227</v>
+        <v>4378853</v>
       </c>
       <c r="C81">
         <v>31</v>
@@ -2339,13 +2694,25 @@
       <c r="D81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>723892</v>
+      </c>
+      <c r="F81">
+        <v>75133</v>
+      </c>
+      <c r="G81">
+        <v>87967</v>
+      </c>
+      <c r="H81">
+        <v>464765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82">
-        <v>5228</v>
+        <v>9048283</v>
       </c>
       <c r="C82">
         <v>32</v>
@@ -2353,13 +2720,25 @@
       <c r="D82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>307397</v>
+      </c>
+      <c r="F82">
+        <v>66901</v>
+      </c>
+      <c r="G82">
+        <v>26406</v>
+      </c>
+      <c r="H82">
+        <v>184721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83">
-        <v>5229</v>
+        <v>4842</v>
       </c>
       <c r="C83">
         <v>33</v>
@@ -2367,13 +2746,25 @@
       <c r="D83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>710332</v>
+      </c>
+      <c r="F83">
+        <v>84035</v>
+      </c>
+      <c r="G83">
+        <v>472976</v>
+      </c>
+      <c r="H83">
+        <v>491129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84">
-        <v>5230</v>
+        <v>8880996</v>
       </c>
       <c r="C84">
         <v>34</v>
@@ -2381,13 +2772,25 @@
       <c r="D84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>740708</v>
+      </c>
+      <c r="F84">
+        <v>53053</v>
+      </c>
+      <c r="G84">
+        <v>412076</v>
+      </c>
+      <c r="H84">
+        <v>961104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85">
-        <v>5231</v>
+        <v>5285680</v>
       </c>
       <c r="C85">
         <v>35</v>
@@ -2395,13 +2798,25 @@
       <c r="D85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>214569</v>
+      </c>
+      <c r="F85">
+        <v>57279</v>
+      </c>
+      <c r="G85">
+        <v>937648</v>
+      </c>
+      <c r="H85">
+        <v>491843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86">
-        <v>5232</v>
+        <v>8651078</v>
       </c>
       <c r="C86">
         <v>36</v>
@@ -2409,13 +2824,25 @@
       <c r="D86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>762600</v>
+      </c>
+      <c r="F86">
+        <v>13322</v>
+      </c>
+      <c r="G86">
+        <v>911741</v>
+      </c>
+      <c r="H86">
+        <v>338730</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87">
-        <v>5233</v>
+        <v>4335071</v>
       </c>
       <c r="C87">
         <v>37</v>
@@ -2423,13 +2850,25 @@
       <c r="D87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>755183</v>
+      </c>
+      <c r="F87">
+        <v>19787</v>
+      </c>
+      <c r="G87">
+        <v>869093</v>
+      </c>
+      <c r="H87">
+        <v>846862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88">
-        <v>5234</v>
+        <v>6904779</v>
       </c>
       <c r="C88">
         <v>38</v>
@@ -2437,13 +2876,25 @@
       <c r="D88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>21257</v>
+      </c>
+      <c r="F88">
+        <v>10199</v>
+      </c>
+      <c r="G88">
+        <v>807760</v>
+      </c>
+      <c r="H88">
+        <v>158241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89">
-        <v>5235</v>
+        <v>5348093</v>
       </c>
       <c r="C89">
         <v>39</v>
@@ -2451,13 +2902,25 @@
       <c r="D89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>804895</v>
+      </c>
+      <c r="F89">
+        <v>89583</v>
+      </c>
+      <c r="G89">
+        <v>67153</v>
+      </c>
+      <c r="H89">
+        <v>771684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90">
-        <v>5236</v>
+        <v>2251640</v>
       </c>
       <c r="C90">
         <v>27</v>
@@ -2465,13 +2928,25 @@
       <c r="D90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>759400</v>
+      </c>
+      <c r="F90">
+        <v>96922</v>
+      </c>
+      <c r="G90">
+        <v>520774</v>
+      </c>
+      <c r="H90">
+        <v>312934</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91">
-        <v>5237</v>
+        <v>7447182</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -2479,13 +2954,25 @@
       <c r="D91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>901268</v>
+      </c>
+      <c r="F91">
+        <v>88966</v>
+      </c>
+      <c r="G91">
+        <v>671958</v>
+      </c>
+      <c r="H91">
+        <v>463939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92">
-        <v>24238</v>
+        <v>8806583</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -2493,13 +2980,25 @@
       <c r="D92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>870579</v>
+      </c>
+      <c r="F92">
+        <v>76926</v>
+      </c>
+      <c r="G92">
+        <v>393125</v>
+      </c>
+      <c r="H92">
+        <v>912043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93">
-        <v>24239</v>
+        <v>8125183</v>
       </c>
       <c r="C93">
         <v>30</v>
@@ -2507,13 +3006,25 @@
       <c r="D93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>482946</v>
+      </c>
+      <c r="F93">
+        <v>5186</v>
+      </c>
+      <c r="G93">
+        <v>405248</v>
+      </c>
+      <c r="H93">
+        <v>559460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
-        <v>24240</v>
+        <v>4384399</v>
       </c>
       <c r="C94">
         <v>31</v>
@@ -2521,13 +3032,25 @@
       <c r="D94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>834122</v>
+      </c>
+      <c r="F94">
+        <v>8353</v>
+      </c>
+      <c r="G94">
+        <v>309256</v>
+      </c>
+      <c r="H94">
+        <v>136897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95">
-        <v>24241</v>
+        <v>509810</v>
       </c>
       <c r="C95">
         <v>32</v>
@@ -2535,13 +3058,25 @@
       <c r="D95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>875863</v>
+      </c>
+      <c r="F95">
+        <v>54036</v>
+      </c>
+      <c r="G95">
+        <v>490024</v>
+      </c>
+      <c r="H95">
+        <v>360793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96">
-        <v>24242</v>
+        <v>3468182</v>
       </c>
       <c r="C96">
         <v>33</v>
@@ -2549,13 +3084,25 @@
       <c r="D96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>958359</v>
+      </c>
+      <c r="F96">
+        <v>13263</v>
+      </c>
+      <c r="G96">
+        <v>106731</v>
+      </c>
+      <c r="H96">
+        <v>926234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97">
-        <v>24243</v>
+        <v>4939503</v>
       </c>
       <c r="C97">
         <v>34</v>
@@ -2563,13 +3110,25 @@
       <c r="D97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>574821</v>
+      </c>
+      <c r="F97">
+        <v>64370</v>
+      </c>
+      <c r="G97">
+        <v>952047</v>
+      </c>
+      <c r="H97">
+        <v>285225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98">
-        <v>24244</v>
+        <v>7996791</v>
       </c>
       <c r="C98">
         <v>35</v>
@@ -2577,13 +3136,25 @@
       <c r="D98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>156645</v>
+      </c>
+      <c r="F98">
+        <v>68307</v>
+      </c>
+      <c r="G98">
+        <v>668663</v>
+      </c>
+      <c r="H98">
+        <v>657362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99">
-        <v>24245</v>
+        <v>4066517</v>
       </c>
       <c r="C99">
         <v>36</v>
@@ -2591,13 +3162,25 @@
       <c r="D99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>475986</v>
+      </c>
+      <c r="F99">
+        <v>95722</v>
+      </c>
+      <c r="G99">
+        <v>455609</v>
+      </c>
+      <c r="H99">
+        <v>818980</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100">
-        <v>24246</v>
+        <v>2401779</v>
       </c>
       <c r="C100">
         <v>37</v>
@@ -2605,9 +3188,20 @@
       <c r="D100" t="s">
         <v>5</v>
       </c>
+      <c r="E100">
+        <v>584622</v>
+      </c>
+      <c r="F100">
+        <v>61492</v>
+      </c>
+      <c r="G100">
+        <v>834835</v>
+      </c>
+      <c r="H100">
+        <v>236976</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>